--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -124,6 +124,147 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Line Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Chart of speed'!$A$2:$A$11</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart of speed'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Number of values</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -408,12 +549,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV100"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +565,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Количество элементов в списке:</t>
+          <t>Кол-во элементов:</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Время:</t>
         </is>
       </c>
     </row>
@@ -433,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002841</v>
+        <v>0.00288</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +587,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003438</v>
+        <v>2.432891</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +595,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00344</v>
+        <v>2.411928</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +603,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>2.431678</v>
+        <v>2.445253</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +611,7 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004921</v>
+        <v>2.480343</v>
       </c>
     </row>
     <row r="7">
@@ -473,7 +619,7 @@
         <v>200</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005364</v>
+        <v>2.455293</v>
       </c>
     </row>
     <row r="8">
@@ -481,7 +627,7 @@
         <v>400</v>
       </c>
       <c r="B8" t="n">
-        <v>2.403678</v>
+        <v>2.422403</v>
       </c>
     </row>
     <row r="9">
@@ -489,7 +635,7 @@
         <v>800</v>
       </c>
       <c r="B9" t="n">
-        <v>2.420892</v>
+        <v>0.006972</v>
       </c>
     </row>
     <row r="10">
@@ -497,7 +643,7 @@
         <v>1000</v>
       </c>
       <c r="B10" t="n">
-        <v>0.006403</v>
+        <v>0.006841</v>
       </c>
     </row>
     <row r="11">
@@ -505,99 +651,11 @@
         <v>1500</v>
       </c>
       <c r="B11" t="n">
-        <v>0.008031999999999999</v>
-      </c>
-    </row>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
+        <v>2.40995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -164,12 +164,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Chart of speed'!$A$2:$A$11</f>
+              <f>'Chart of speed'!$A$2:$A$201</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart of speed'!$B$2:$B$11</f>
+              <f>'Chart of speed'!$B$2:$B$201</f>
             </numRef>
           </val>
         </ser>
@@ -242,9 +242,9 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>3</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,79 +579,1599 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00288</v>
+        <v>0.009187000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="B3" t="n">
-        <v>2.432891</v>
+        <v>0.019633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="n">
-        <v>2.411928</v>
+        <v>0.019538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40</v>
+        <v>1510</v>
       </c>
       <c r="B5" t="n">
-        <v>2.445253</v>
+        <v>0.021878</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100</v>
+        <v>2010</v>
       </c>
       <c r="B6" t="n">
-        <v>2.480343</v>
+        <v>0.019017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>200</v>
+        <v>2510</v>
       </c>
       <c r="B7" t="n">
-        <v>2.455293</v>
+        <v>0.02041</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>400</v>
+        <v>3010</v>
       </c>
       <c r="B8" t="n">
-        <v>2.422403</v>
+        <v>0.021693</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>800</v>
+        <v>3510</v>
       </c>
       <c r="B9" t="n">
-        <v>0.006972</v>
+        <v>0.018566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1000</v>
+        <v>4010</v>
       </c>
       <c r="B10" t="n">
-        <v>0.006841</v>
+        <v>0.023997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1500</v>
+        <v>4510</v>
       </c>
       <c r="B11" t="n">
-        <v>2.40995</v>
+        <v>0.022432</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5010</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.027818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5510</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.028059</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6010</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.024171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6510</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02493</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7010</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.029959</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7510</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.026356</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8010</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.025535</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8510</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.022181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9010</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.029436</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9510</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.024663</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.027609</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10510</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.026673</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11010</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02876</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11510</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.02877</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12010</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.026859</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12510</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.021165</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>13010</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.029653</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>13510</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.029848</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14010</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.029248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14510</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.025565</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15010</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.027677</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15510</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.025585</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16010</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.024447</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16510</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.028726</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17010</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.029013</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17510</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.034078</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>18010</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.023763</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>18510</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.026367</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>19010</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.031589</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19510</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.029493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>20010</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.029431</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>20510</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.028705</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21010</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.031957</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21510</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03147</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22010</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.029218</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22510</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.030837</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23010</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.027887</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23510</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.028589</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>24010</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.024594</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>24510</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.033789</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>25010</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.026448</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>25510</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.029047</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>26010</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.026539</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>26510</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.029326</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27010</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.03061</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27510</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.028804</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28010</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.032789</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28510</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.029362</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29010</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.028495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29510</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.031115</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>30010</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.030953</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>30510</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.030256</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31010</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.030446</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31510</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.030198</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32010</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.028522</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32510</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.032493</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33010</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.026833</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33510</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.034576</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34010</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.030652</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34510</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.031402</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35010</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.029721</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35510</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.026098</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36010</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.031618</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36510</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.028123</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37010</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.031534</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.027017</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38010</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.038965</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38510</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.029552</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39010</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.03319</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39510</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.027848</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>40010</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.029123</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>40510</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.032481</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>41010</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.030123</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>41510</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.029736</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42010</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.033113</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42510</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.029694</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>43010</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.034503</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>43510</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.022487</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.02934</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>44510</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.022053</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.023421</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.027901</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.023518</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>46510</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.030743</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>47010</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.030089</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>47510</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.03035</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>48010</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.029923</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>48510</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.030458</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>49010</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.033406</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>49510</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.032923</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>50010</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.031373</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>50510</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.031807</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>51010</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.030081</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>51510</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.031247</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>52010</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.033055</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>52510</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.031215</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>53010</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.024215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>53510</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.030071</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>54010</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.024827</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>54510</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.029409</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>55010</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.033719</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>55510</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.025366</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>56010</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.032955</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>56510</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.02949</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>57010</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.029706</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>57510</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.03128</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>58010</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.031354</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>58510</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.031337</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>59010</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.031989</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>59510</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.033279</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>60010</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.029112</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>60510</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.031812</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>61010</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.024001</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>61510</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.02727</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>62010</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.02905</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>62510</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.026189</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>63010</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.027608</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>63510</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.021826</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>64010</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.032026</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>64510</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.027585</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>65010</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.023986</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>65510</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.016772</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>66010</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.022861</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>66510</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.020075</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>67010</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.022602</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>67510</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.024813</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>68010</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.021782</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>68510</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.022765</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>69010</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.026752</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>69510</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.022708</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>70010</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.022202</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>70510</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.027284</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>71010</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.021446</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>71510</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.022354</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>72010</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.02363</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>72510</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.02249</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>73010</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.015914</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>73510</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.021831</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>74010</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.021763</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>74510</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0238</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>75010</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.016784</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>75510</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.017903</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>76010</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.026727</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>76510</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.025171</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>77010</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.020514</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>77510</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.020933</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>78010</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.023323</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>78510</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.021798</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>79010</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.026068</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>79510</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.020578</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>80010</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.022926</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>80510</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.020507</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>81010</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.022221</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>81510</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.023027</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>82010</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.025295</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>82510</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.023367</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>83010</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.022076</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>83510</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.02431</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>84010</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.02148</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>84510</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.022958</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>85010</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.025163</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>85510</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.026947</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>86010</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.024054</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>86510</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.021713</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>87010</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.025701</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>87510</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0196</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>88010</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.01917</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>88510</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.025022</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>89010</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.023566</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>89510</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.025015</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>90010</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.025315</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>90510</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.021716</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>91010</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.021579</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>91510</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.024228</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>92010</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.023343</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>92510</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.019815</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>93010</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.023795</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>93510</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.086094</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>94010</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.023185</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>94510</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.022146</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>95010</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.025735</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>95510</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.026362</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>96010</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.028069</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>96510</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.029825</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>97010</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.022287</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>97510</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.021955</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>98010</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.021657</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>98510</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.024653</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>99010</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.016087</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>99510</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.018627</v>
       </c>
     </row>
   </sheetData>

--- a/Chart.xlsx
+++ b/Chart.xlsx
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009187000000000001</v>
+        <v>0.006696</v>
       </c>
     </row>
     <row r="3">
@@ -587,7 +587,7 @@
         <v>510</v>
       </c>
       <c r="B3" t="n">
-        <v>0.019633</v>
+        <v>0.016493</v>
       </c>
     </row>
     <row r="4">
@@ -595,7 +595,7 @@
         <v>1010</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019538</v>
+        <v>0.014931</v>
       </c>
     </row>
     <row r="5">
@@ -603,7 +603,7 @@
         <v>1510</v>
       </c>
       <c r="B5" t="n">
-        <v>0.021878</v>
+        <v>0.016103</v>
       </c>
     </row>
     <row r="6">
@@ -611,7 +611,7 @@
         <v>2010</v>
       </c>
       <c r="B6" t="n">
-        <v>0.019017</v>
+        <v>0.01806</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         <v>2510</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02041</v>
+        <v>0.019705</v>
       </c>
     </row>
     <row r="8">
@@ -627,7 +627,7 @@
         <v>3010</v>
       </c>
       <c r="B8" t="n">
-        <v>0.021693</v>
+        <v>0.025364</v>
       </c>
     </row>
     <row r="9">
@@ -635,7 +635,7 @@
         <v>3510</v>
       </c>
       <c r="B9" t="n">
-        <v>0.018566</v>
+        <v>0.021497</v>
       </c>
     </row>
     <row r="10">
@@ -643,7 +643,7 @@
         <v>4010</v>
       </c>
       <c r="B10" t="n">
-        <v>0.023997</v>
+        <v>0.021694</v>
       </c>
     </row>
     <row r="11">
@@ -651,7 +651,7 @@
         <v>4510</v>
       </c>
       <c r="B11" t="n">
-        <v>0.022432</v>
+        <v>0.022942</v>
       </c>
     </row>
     <row r="12">
@@ -659,7 +659,7 @@
         <v>5010</v>
       </c>
       <c r="B12" t="n">
-        <v>0.027818</v>
+        <v>0.026758</v>
       </c>
     </row>
     <row r="13">
@@ -667,7 +667,7 @@
         <v>5510</v>
       </c>
       <c r="B13" t="n">
-        <v>0.028059</v>
+        <v>0.022427</v>
       </c>
     </row>
     <row r="14">
@@ -675,7 +675,7 @@
         <v>6010</v>
       </c>
       <c r="B14" t="n">
-        <v>0.024171</v>
+        <v>0.023904</v>
       </c>
     </row>
     <row r="15">
@@ -683,7 +683,7 @@
         <v>6510</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02493</v>
+        <v>0.024058</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
         <v>7010</v>
       </c>
       <c r="B16" t="n">
-        <v>0.029959</v>
+        <v>0.016492</v>
       </c>
     </row>
     <row r="17">
@@ -699,7 +699,7 @@
         <v>7510</v>
       </c>
       <c r="B17" t="n">
-        <v>0.026356</v>
+        <v>0.020366</v>
       </c>
     </row>
     <row r="18">
@@ -707,7 +707,7 @@
         <v>8010</v>
       </c>
       <c r="B18" t="n">
-        <v>0.025535</v>
+        <v>0.023522</v>
       </c>
     </row>
     <row r="19">
@@ -715,7 +715,7 @@
         <v>8510</v>
       </c>
       <c r="B19" t="n">
-        <v>0.022181</v>
+        <v>0.023595</v>
       </c>
     </row>
     <row r="20">
@@ -723,7 +723,7 @@
         <v>9010</v>
       </c>
       <c r="B20" t="n">
-        <v>0.029436</v>
+        <v>0.022934</v>
       </c>
     </row>
     <row r="21">
@@ -731,7 +731,7 @@
         <v>9510</v>
       </c>
       <c r="B21" t="n">
-        <v>0.024663</v>
+        <v>0.022548</v>
       </c>
     </row>
     <row r="22">
@@ -739,7 +739,7 @@
         <v>10010</v>
       </c>
       <c r="B22" t="n">
-        <v>0.027609</v>
+        <v>0.022537</v>
       </c>
     </row>
     <row r="23">
@@ -747,7 +747,7 @@
         <v>10510</v>
       </c>
       <c r="B23" t="n">
-        <v>0.026673</v>
+        <v>0.022601</v>
       </c>
     </row>
     <row r="24">
@@ -755,7 +755,7 @@
         <v>11010</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02876</v>
+        <v>0.020744</v>
       </c>
     </row>
     <row r="25">
@@ -763,7 +763,7 @@
         <v>11510</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02877</v>
+        <v>0.022743</v>
       </c>
     </row>
     <row r="26">
@@ -771,7 +771,7 @@
         <v>12010</v>
       </c>
       <c r="B26" t="n">
-        <v>0.026859</v>
+        <v>0.023913</v>
       </c>
     </row>
     <row r="27">
@@ -779,7 +779,7 @@
         <v>12510</v>
       </c>
       <c r="B27" t="n">
-        <v>0.021165</v>
+        <v>0.02236</v>
       </c>
     </row>
     <row r="28">
@@ -787,7 +787,7 @@
         <v>13010</v>
       </c>
       <c r="B28" t="n">
-        <v>0.029653</v>
+        <v>0.023723</v>
       </c>
     </row>
     <row r="29">
@@ -795,7 +795,7 @@
         <v>13510</v>
       </c>
       <c r="B29" t="n">
-        <v>0.029848</v>
+        <v>0.018317</v>
       </c>
     </row>
     <row r="30">
@@ -803,7 +803,7 @@
         <v>14010</v>
       </c>
       <c r="B30" t="n">
-        <v>0.029248</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="31">
@@ -811,7 +811,7 @@
         <v>14510</v>
       </c>
       <c r="B31" t="n">
-        <v>0.025565</v>
+        <v>0.022463</v>
       </c>
     </row>
     <row r="32">
@@ -819,7 +819,7 @@
         <v>15010</v>
       </c>
       <c r="B32" t="n">
-        <v>0.027677</v>
+        <v>0.02038</v>
       </c>
     </row>
     <row r="33">
@@ -827,7 +827,7 @@
         <v>15510</v>
       </c>
       <c r="B33" t="n">
-        <v>0.025585</v>
+        <v>0.023415</v>
       </c>
     </row>
     <row r="34">
@@ -835,7 +835,7 @@
         <v>16010</v>
       </c>
       <c r="B34" t="n">
-        <v>0.024447</v>
+        <v>0.018267</v>
       </c>
     </row>
     <row r="35">
@@ -843,7 +843,7 @@
         <v>16510</v>
       </c>
       <c r="B35" t="n">
-        <v>0.028726</v>
+        <v>0.022345</v>
       </c>
     </row>
     <row r="36">
@@ -851,7 +851,7 @@
         <v>17010</v>
       </c>
       <c r="B36" t="n">
-        <v>0.029013</v>
+        <v>0.023297</v>
       </c>
     </row>
     <row r="37">
@@ -859,7 +859,7 @@
         <v>17510</v>
       </c>
       <c r="B37" t="n">
-        <v>0.034078</v>
+        <v>0.021482</v>
       </c>
     </row>
     <row r="38">
@@ -867,7 +867,7 @@
         <v>18010</v>
       </c>
       <c r="B38" t="n">
-        <v>0.023763</v>
+        <v>0.018998</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>18510</v>
       </c>
       <c r="B39" t="n">
-        <v>0.026367</v>
+        <v>0.022297</v>
       </c>
     </row>
     <row r="40">
@@ -883,7 +883,7 @@
         <v>19010</v>
       </c>
       <c r="B40" t="n">
-        <v>0.031589</v>
+        <v>0.018174</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>19510</v>
       </c>
       <c r="B41" t="n">
-        <v>0.029493</v>
+        <v>0.023206</v>
       </c>
     </row>
     <row r="42">
@@ -899,7 +899,7 @@
         <v>20010</v>
       </c>
       <c r="B42" t="n">
-        <v>0.029431</v>
+        <v>0.022321</v>
       </c>
     </row>
     <row r="43">
@@ -907,7 +907,7 @@
         <v>20510</v>
       </c>
       <c r="B43" t="n">
-        <v>0.028705</v>
+        <v>0.022494</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>21010</v>
       </c>
       <c r="B44" t="n">
-        <v>0.031957</v>
+        <v>0.018926</v>
       </c>
     </row>
     <row r="45">
@@ -923,7 +923,7 @@
         <v>21510</v>
       </c>
       <c r="B45" t="n">
-        <v>0.03147</v>
+        <v>0.023807</v>
       </c>
     </row>
     <row r="46">
@@ -931,7 +931,7 @@
         <v>22010</v>
       </c>
       <c r="B46" t="n">
-        <v>0.029218</v>
+        <v>0.019598</v>
       </c>
     </row>
     <row r="47">
@@ -939,7 +939,7 @@
         <v>22510</v>
       </c>
       <c r="B47" t="n">
-        <v>0.030837</v>
+        <v>0.022688</v>
       </c>
     </row>
     <row r="48">
@@ -947,7 +947,7 @@
         <v>23010</v>
       </c>
       <c r="B48" t="n">
-        <v>0.027887</v>
+        <v>0.018265</v>
       </c>
     </row>
     <row r="49">
@@ -955,7 +955,7 @@
         <v>23510</v>
       </c>
       <c r="B49" t="n">
-        <v>0.028589</v>
+        <v>0.020504</v>
       </c>
     </row>
     <row r="50">
@@ -963,7 +963,7 @@
         <v>24010</v>
       </c>
       <c r="B50" t="n">
-        <v>0.024594</v>
+        <v>0.022775</v>
       </c>
     </row>
     <row r="51">
@@ -971,7 +971,7 @@
         <v>24510</v>
       </c>
       <c r="B51" t="n">
-        <v>0.033789</v>
+        <v>0.018481</v>
       </c>
     </row>
     <row r="52">
@@ -979,7 +979,7 @@
         <v>25010</v>
       </c>
       <c r="B52" t="n">
-        <v>0.026448</v>
+        <v>0.023341</v>
       </c>
     </row>
     <row r="53">
@@ -987,7 +987,7 @@
         <v>25510</v>
       </c>
       <c r="B53" t="n">
-        <v>0.029047</v>
+        <v>0.020648</v>
       </c>
     </row>
     <row r="54">
@@ -995,7 +995,7 @@
         <v>26010</v>
       </c>
       <c r="B54" t="n">
-        <v>0.026539</v>
+        <v>0.024721</v>
       </c>
     </row>
     <row r="55">
@@ -1003,7 +1003,7 @@
         <v>26510</v>
       </c>
       <c r="B55" t="n">
-        <v>0.029326</v>
+        <v>0.011968</v>
       </c>
     </row>
     <row r="56">
@@ -1011,7 +1011,7 @@
         <v>27010</v>
       </c>
       <c r="B56" t="n">
-        <v>0.03061</v>
+        <v>0.018133</v>
       </c>
     </row>
     <row r="57">
@@ -1019,7 +1019,7 @@
         <v>27510</v>
       </c>
       <c r="B57" t="n">
-        <v>0.028804</v>
+        <v>0.016032</v>
       </c>
     </row>
     <row r="58">
@@ -1027,7 +1027,7 @@
         <v>28010</v>
       </c>
       <c r="B58" t="n">
-        <v>0.032789</v>
+        <v>0.020309</v>
       </c>
     </row>
     <row r="59">
@@ -1035,7 +1035,7 @@
         <v>28510</v>
       </c>
       <c r="B59" t="n">
-        <v>0.029362</v>
+        <v>0.020666</v>
       </c>
     </row>
     <row r="60">
@@ -1043,7 +1043,7 @@
         <v>29010</v>
       </c>
       <c r="B60" t="n">
-        <v>0.028495</v>
+        <v>0.019886</v>
       </c>
     </row>
     <row r="61">
@@ -1051,7 +1051,7 @@
         <v>29510</v>
       </c>
       <c r="B61" t="n">
-        <v>0.031115</v>
+        <v>0.016029</v>
       </c>
     </row>
     <row r="62">
@@ -1059,7 +1059,7 @@
         <v>30010</v>
       </c>
       <c r="B62" t="n">
-        <v>0.030953</v>
+        <v>0.020434</v>
       </c>
     </row>
     <row r="63">
@@ -1067,7 +1067,7 @@
         <v>30510</v>
       </c>
       <c r="B63" t="n">
-        <v>0.030256</v>
+        <v>0.022679</v>
       </c>
     </row>
     <row r="64">
@@ -1075,7 +1075,7 @@
         <v>31010</v>
       </c>
       <c r="B64" t="n">
-        <v>0.030446</v>
+        <v>0.022474</v>
       </c>
     </row>
     <row r="65">
@@ -1083,7 +1083,7 @@
         <v>31510</v>
       </c>
       <c r="B65" t="n">
-        <v>0.030198</v>
+        <v>0.020622</v>
       </c>
     </row>
     <row r="66">
@@ -1091,7 +1091,7 @@
         <v>32010</v>
       </c>
       <c r="B66" t="n">
-        <v>0.028522</v>
+        <v>0.022405</v>
       </c>
     </row>
     <row r="67">
@@ -1099,7 +1099,7 @@
         <v>32510</v>
       </c>
       <c r="B67" t="n">
-        <v>0.032493</v>
+        <v>0.028499</v>
       </c>
     </row>
     <row r="68">
@@ -1107,7 +1107,7 @@
         <v>33010</v>
       </c>
       <c r="B68" t="n">
-        <v>0.026833</v>
+        <v>0.023583</v>
       </c>
     </row>
     <row r="69">
@@ -1115,7 +1115,7 @@
         <v>33510</v>
       </c>
       <c r="B69" t="n">
-        <v>0.034576</v>
+        <v>0.024121</v>
       </c>
     </row>
     <row r="70">
@@ -1123,7 +1123,7 @@
         <v>34010</v>
       </c>
       <c r="B70" t="n">
-        <v>0.030652</v>
+        <v>0.01946</v>
       </c>
     </row>
     <row r="71">
@@ -1131,7 +1131,7 @@
         <v>34510</v>
       </c>
       <c r="B71" t="n">
-        <v>0.031402</v>
+        <v>0.016288</v>
       </c>
     </row>
     <row r="72">
@@ -1139,7 +1139,7 @@
         <v>35010</v>
       </c>
       <c r="B72" t="n">
-        <v>0.029721</v>
+        <v>0.020586</v>
       </c>
     </row>
     <row r="73">
@@ -1147,7 +1147,7 @@
         <v>35510</v>
       </c>
       <c r="B73" t="n">
-        <v>0.026098</v>
+        <v>0.023989</v>
       </c>
     </row>
     <row r="74">
@@ -1155,7 +1155,7 @@
         <v>36010</v>
       </c>
       <c r="B74" t="n">
-        <v>0.031618</v>
+        <v>0.016387</v>
       </c>
     </row>
     <row r="75">
@@ -1163,7 +1163,7 @@
         <v>36510</v>
       </c>
       <c r="B75" t="n">
-        <v>0.028123</v>
+        <v>0.018573</v>
       </c>
     </row>
     <row r="76">
@@ -1171,7 +1171,7 @@
         <v>37010</v>
       </c>
       <c r="B76" t="n">
-        <v>0.031534</v>
+        <v>0.024229</v>
       </c>
     </row>
     <row r="77">
@@ -1179,7 +1179,7 @@
         <v>37510</v>
       </c>
       <c r="B77" t="n">
-        <v>0.027017</v>
+        <v>0.016057</v>
       </c>
     </row>
     <row r="78">
@@ -1187,7 +1187,7 @@
         <v>38010</v>
       </c>
       <c r="B78" t="n">
-        <v>0.038965</v>
+        <v>0.023126</v>
       </c>
     </row>
     <row r="79">
@@ -1195,7 +1195,7 @@
         <v>38510</v>
       </c>
       <c r="B79" t="n">
-        <v>0.029552</v>
+        <v>0.022703</v>
       </c>
     </row>
     <row r="80">
@@ -1203,7 +1203,7 @@
         <v>39010</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03319</v>
+        <v>0.024478</v>
       </c>
     </row>
     <row r="81">
@@ -1211,7 +1211,7 @@
         <v>39510</v>
       </c>
       <c r="B81" t="n">
-        <v>0.027848</v>
+        <v>0.022501</v>
       </c>
     </row>
     <row r="82">
@@ -1219,7 +1219,7 @@
         <v>40010</v>
       </c>
       <c r="B82" t="n">
-        <v>0.029123</v>
+        <v>0.020902</v>
       </c>
     </row>
     <row r="83">
@@ -1227,7 +1227,7 @@
         <v>40510</v>
       </c>
       <c r="B83" t="n">
-        <v>0.032481</v>
+        <v>0.023289</v>
       </c>
     </row>
     <row r="84">
@@ -1235,7 +1235,7 @@
         <v>41010</v>
       </c>
       <c r="B84" t="n">
-        <v>0.030123</v>
+        <v>0.021291</v>
       </c>
     </row>
     <row r="85">
@@ -1243,7 +1243,7 @@
         <v>41510</v>
       </c>
       <c r="B85" t="n">
-        <v>0.029736</v>
+        <v>0.020433</v>
       </c>
     </row>
     <row r="86">
@@ -1251,7 +1251,7 @@
         <v>42010</v>
       </c>
       <c r="B86" t="n">
-        <v>0.033113</v>
+        <v>0.021979</v>
       </c>
     </row>
     <row r="87">
@@ -1259,7 +1259,7 @@
         <v>42510</v>
       </c>
       <c r="B87" t="n">
-        <v>0.029694</v>
+        <v>0.024007</v>
       </c>
     </row>
     <row r="88">
@@ -1267,7 +1267,7 @@
         <v>43010</v>
       </c>
       <c r="B88" t="n">
-        <v>0.034503</v>
+        <v>0.023202</v>
       </c>
     </row>
     <row r="89">
@@ -1275,7 +1275,7 @@
         <v>43510</v>
       </c>
       <c r="B89" t="n">
-        <v>0.022487</v>
+        <v>0.021857</v>
       </c>
     </row>
     <row r="90">
@@ -1283,7 +1283,7 @@
         <v>44010</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02934</v>
+        <v>0.021531</v>
       </c>
     </row>
     <row r="91">
@@ -1291,7 +1291,7 @@
         <v>44510</v>
       </c>
       <c r="B91" t="n">
-        <v>0.022053</v>
+        <v>0.018784</v>
       </c>
     </row>
     <row r="92">
@@ -1299,7 +1299,7 @@
         <v>45010</v>
       </c>
       <c r="B92" t="n">
-        <v>0.023421</v>
+        <v>0.024593</v>
       </c>
     </row>
     <row r="93">
@@ -1307,7 +1307,7 @@
         <v>45510</v>
       </c>
       <c r="B93" t="n">
-        <v>0.027901</v>
+        <v>0.018484</v>
       </c>
     </row>
     <row r="94">
@@ -1315,7 +1315,7 @@
         <v>46010</v>
       </c>
       <c r="B94" t="n">
-        <v>0.023518</v>
+        <v>0.023212</v>
       </c>
     </row>
     <row r="95">
@@ -1323,7 +1323,7 @@
         <v>46510</v>
       </c>
       <c r="B95" t="n">
-        <v>0.030743</v>
+        <v>0.021074</v>
       </c>
     </row>
     <row r="96">
@@ -1331,7 +1331,7 @@
         <v>47010</v>
       </c>
       <c r="B96" t="n">
-        <v>0.030089</v>
+        <v>0.023835</v>
       </c>
     </row>
     <row r="97">
@@ -1339,7 +1339,7 @@
         <v>47510</v>
       </c>
       <c r="B97" t="n">
-        <v>0.03035</v>
+        <v>0.022932</v>
       </c>
     </row>
     <row r="98">
@@ -1347,7 +1347,7 @@
         <v>48010</v>
       </c>
       <c r="B98" t="n">
-        <v>0.029923</v>
+        <v>0.024124</v>
       </c>
     </row>
     <row r="99">
@@ -1355,7 +1355,7 @@
         <v>48510</v>
       </c>
       <c r="B99" t="n">
-        <v>0.030458</v>
+        <v>0.0212</v>
       </c>
     </row>
     <row r="100">
@@ -1363,7 +1363,7 @@
         <v>49010</v>
       </c>
       <c r="B100" t="n">
-        <v>0.033406</v>
+        <v>0.023831</v>
       </c>
     </row>
     <row r="101">
@@ -1371,7 +1371,7 @@
         <v>49510</v>
       </c>
       <c r="B101" t="n">
-        <v>0.032923</v>
+        <v>0.024132</v>
       </c>
     </row>
     <row r="102">
@@ -1379,7 +1379,7 @@
         <v>50010</v>
       </c>
       <c r="B102" t="n">
-        <v>0.031373</v>
+        <v>0.023785</v>
       </c>
     </row>
     <row r="103">
@@ -1387,7 +1387,7 @@
         <v>50510</v>
       </c>
       <c r="B103" t="n">
-        <v>0.031807</v>
+        <v>0.023492</v>
       </c>
     </row>
     <row r="104">
@@ -1395,7 +1395,7 @@
         <v>51010</v>
       </c>
       <c r="B104" t="n">
-        <v>0.030081</v>
+        <v>0.023677</v>
       </c>
     </row>
     <row r="105">
@@ -1403,7 +1403,7 @@
         <v>51510</v>
       </c>
       <c r="B105" t="n">
-        <v>0.031247</v>
+        <v>0.022711</v>
       </c>
     </row>
     <row r="106">
@@ -1411,7 +1411,7 @@
         <v>52010</v>
       </c>
       <c r="B106" t="n">
-        <v>0.033055</v>
+        <v>0.020931</v>
       </c>
     </row>
     <row r="107">
@@ -1419,7 +1419,7 @@
         <v>52510</v>
       </c>
       <c r="B107" t="n">
-        <v>0.031215</v>
+        <v>0.02066</v>
       </c>
     </row>
     <row r="108">
@@ -1427,7 +1427,7 @@
         <v>53010</v>
       </c>
       <c r="B108" t="n">
-        <v>0.024215</v>
+        <v>0.02321</v>
       </c>
     </row>
     <row r="109">
@@ -1435,7 +1435,7 @@
         <v>53510</v>
       </c>
       <c r="B109" t="n">
-        <v>0.030071</v>
+        <v>0.015921</v>
       </c>
     </row>
     <row r="110">
@@ -1443,7 +1443,7 @@
         <v>54010</v>
       </c>
       <c r="B110" t="n">
-        <v>0.024827</v>
+        <v>0.020503</v>
       </c>
     </row>
     <row r="111">
@@ -1451,7 +1451,7 @@
         <v>54510</v>
       </c>
       <c r="B111" t="n">
-        <v>0.029409</v>
+        <v>0.02066</v>
       </c>
     </row>
     <row r="112">
@@ -1459,7 +1459,7 @@
         <v>55010</v>
       </c>
       <c r="B112" t="n">
-        <v>0.033719</v>
+        <v>0.035046</v>
       </c>
     </row>
     <row r="113">
@@ -1467,7 +1467,7 @@
         <v>55510</v>
       </c>
       <c r="B113" t="n">
-        <v>0.025366</v>
+        <v>0.022875</v>
       </c>
     </row>
     <row r="114">
@@ -1475,7 +1475,7 @@
         <v>56010</v>
       </c>
       <c r="B114" t="n">
-        <v>0.032955</v>
+        <v>0.022774</v>
       </c>
     </row>
     <row r="115">
@@ -1483,7 +1483,7 @@
         <v>56510</v>
       </c>
       <c r="B115" t="n">
-        <v>0.02949</v>
+        <v>0.020604</v>
       </c>
     </row>
     <row r="116">
@@ -1491,7 +1491,7 @@
         <v>57010</v>
       </c>
       <c r="B116" t="n">
-        <v>0.029706</v>
+        <v>0.020543</v>
       </c>
     </row>
     <row r="117">
@@ -1499,7 +1499,7 @@
         <v>57510</v>
       </c>
       <c r="B117" t="n">
-        <v>0.03128</v>
+        <v>0.018418</v>
       </c>
     </row>
     <row r="118">
@@ -1507,7 +1507,7 @@
         <v>58010</v>
       </c>
       <c r="B118" t="n">
-        <v>0.031354</v>
+        <v>0.022837</v>
       </c>
     </row>
     <row r="119">
@@ -1515,7 +1515,7 @@
         <v>58510</v>
       </c>
       <c r="B119" t="n">
-        <v>0.031337</v>
+        <v>0.023069</v>
       </c>
     </row>
     <row r="120">
@@ -1523,7 +1523,7 @@
         <v>59010</v>
       </c>
       <c r="B120" t="n">
-        <v>0.031989</v>
+        <v>0.022594</v>
       </c>
     </row>
     <row r="121">
@@ -1531,7 +1531,7 @@
         <v>59510</v>
       </c>
       <c r="B121" t="n">
-        <v>0.033279</v>
+        <v>0.020311</v>
       </c>
     </row>
     <row r="122">
@@ -1539,7 +1539,7 @@
         <v>60010</v>
       </c>
       <c r="B122" t="n">
-        <v>0.029112</v>
+        <v>0.024354</v>
       </c>
     </row>
     <row r="123">
@@ -1547,7 +1547,7 @@
         <v>60510</v>
       </c>
       <c r="B123" t="n">
-        <v>0.031812</v>
+        <v>0.023239</v>
       </c>
     </row>
     <row r="124">
@@ -1555,7 +1555,7 @@
         <v>61010</v>
       </c>
       <c r="B124" t="n">
-        <v>0.024001</v>
+        <v>0.023175</v>
       </c>
     </row>
     <row r="125">
@@ -1563,7 +1563,7 @@
         <v>61510</v>
       </c>
       <c r="B125" t="n">
-        <v>0.02727</v>
+        <v>0.021647</v>
       </c>
     </row>
     <row r="126">
@@ -1571,7 +1571,7 @@
         <v>62010</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02905</v>
+        <v>0.018196</v>
       </c>
     </row>
     <row r="127">
@@ -1579,7 +1579,7 @@
         <v>62510</v>
       </c>
       <c r="B127" t="n">
-        <v>0.026189</v>
+        <v>0.02077</v>
       </c>
     </row>
     <row r="128">
@@ -1587,7 +1587,7 @@
         <v>63010</v>
       </c>
       <c r="B128" t="n">
-        <v>0.027608</v>
+        <v>0.020766</v>
       </c>
     </row>
     <row r="129">
@@ -1595,7 +1595,7 @@
         <v>63510</v>
       </c>
       <c r="B129" t="n">
-        <v>0.021826</v>
+        <v>0.023018</v>
       </c>
     </row>
     <row r="130">
@@ -1603,7 +1603,7 @@
         <v>64010</v>
       </c>
       <c r="B130" t="n">
-        <v>0.032026</v>
+        <v>0.023969</v>
       </c>
     </row>
     <row r="131">
@@ -1611,7 +1611,7 @@
         <v>64510</v>
       </c>
       <c r="B131" t="n">
-        <v>0.027585</v>
+        <v>0.024074</v>
       </c>
     </row>
     <row r="132">
@@ -1619,7 +1619,7 @@
         <v>65010</v>
       </c>
       <c r="B132" t="n">
-        <v>0.023986</v>
+        <v>0.020435</v>
       </c>
     </row>
     <row r="133">
@@ -1627,7 +1627,7 @@
         <v>65510</v>
       </c>
       <c r="B133" t="n">
-        <v>0.016772</v>
+        <v>0.026178</v>
       </c>
     </row>
     <row r="134">
@@ -1635,7 +1635,7 @@
         <v>66010</v>
       </c>
       <c r="B134" t="n">
-        <v>0.022861</v>
+        <v>0.026689</v>
       </c>
     </row>
     <row r="135">
@@ -1643,7 +1643,7 @@
         <v>66510</v>
       </c>
       <c r="B135" t="n">
-        <v>0.020075</v>
+        <v>0.023908</v>
       </c>
     </row>
     <row r="136">
@@ -1651,7 +1651,7 @@
         <v>67010</v>
       </c>
       <c r="B136" t="n">
-        <v>0.022602</v>
+        <v>0.018625</v>
       </c>
     </row>
     <row r="137">
@@ -1659,7 +1659,7 @@
         <v>67510</v>
       </c>
       <c r="B137" t="n">
-        <v>0.024813</v>
+        <v>0.024538</v>
       </c>
     </row>
     <row r="138">
@@ -1667,7 +1667,7 @@
         <v>68010</v>
       </c>
       <c r="B138" t="n">
-        <v>0.021782</v>
+        <v>0.022102</v>
       </c>
     </row>
     <row r="139">
@@ -1675,7 +1675,7 @@
         <v>68510</v>
       </c>
       <c r="B139" t="n">
-        <v>0.022765</v>
+        <v>0.021148</v>
       </c>
     </row>
     <row r="140">
@@ -1683,7 +1683,7 @@
         <v>69010</v>
       </c>
       <c r="B140" t="n">
-        <v>0.026752</v>
+        <v>0.02335</v>
       </c>
     </row>
     <row r="141">
@@ -1691,7 +1691,7 @@
         <v>69510</v>
       </c>
       <c r="B141" t="n">
-        <v>0.022708</v>
+        <v>0.016228</v>
       </c>
     </row>
     <row r="142">
@@ -1699,7 +1699,7 @@
         <v>70010</v>
       </c>
       <c r="B142" t="n">
-        <v>0.022202</v>
+        <v>0.022725</v>
       </c>
     </row>
     <row r="143">
@@ -1707,7 +1707,7 @@
         <v>70510</v>
       </c>
       <c r="B143" t="n">
-        <v>0.027284</v>
+        <v>0.020681</v>
       </c>
     </row>
     <row r="144">
@@ -1715,7 +1715,7 @@
         <v>71010</v>
       </c>
       <c r="B144" t="n">
-        <v>0.021446</v>
+        <v>0.023158</v>
       </c>
     </row>
     <row r="145">
@@ -1723,7 +1723,7 @@
         <v>71510</v>
       </c>
       <c r="B145" t="n">
-        <v>0.022354</v>
+        <v>0.023392</v>
       </c>
     </row>
     <row r="146">
@@ -1731,7 +1731,7 @@
         <v>72010</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02363</v>
+        <v>0.020643</v>
       </c>
     </row>
     <row r="147">
@@ -1739,7 +1739,7 @@
         <v>72510</v>
       </c>
       <c r="B147" t="n">
-        <v>0.02249</v>
+        <v>0.018534</v>
       </c>
     </row>
     <row r="148">
@@ -1747,7 +1747,7 @@
         <v>73010</v>
       </c>
       <c r="B148" t="n">
-        <v>0.015914</v>
+        <v>0.022241</v>
       </c>
     </row>
     <row r="149">
@@ -1755,7 +1755,7 @@
         <v>73510</v>
       </c>
       <c r="B149" t="n">
-        <v>0.021831</v>
+        <v>0.020556</v>
       </c>
     </row>
     <row r="150">
@@ -1763,7 +1763,7 @@
         <v>74010</v>
       </c>
       <c r="B150" t="n">
-        <v>0.021763</v>
+        <v>0.024696</v>
       </c>
     </row>
     <row r="151">
@@ -1771,7 +1771,7 @@
         <v>74510</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0238</v>
+        <v>0.01809</v>
       </c>
     </row>
     <row r="152">
@@ -1779,7 +1779,7 @@
         <v>75010</v>
       </c>
       <c r="B152" t="n">
-        <v>0.016784</v>
+        <v>0.018015</v>
       </c>
     </row>
     <row r="153">
@@ -1787,7 +1787,7 @@
         <v>75510</v>
       </c>
       <c r="B153" t="n">
-        <v>0.017903</v>
+        <v>0.013731</v>
       </c>
     </row>
     <row r="154">
@@ -1795,7 +1795,7 @@
         <v>76010</v>
       </c>
       <c r="B154" t="n">
-        <v>0.026727</v>
+        <v>0.016906</v>
       </c>
     </row>
     <row r="155">
@@ -1803,7 +1803,7 @@
         <v>76510</v>
       </c>
       <c r="B155" t="n">
-        <v>0.025171</v>
+        <v>0.016416</v>
       </c>
     </row>
     <row r="156">
@@ -1811,7 +1811,7 @@
         <v>77010</v>
       </c>
       <c r="B156" t="n">
-        <v>0.020514</v>
+        <v>0.013809</v>
       </c>
     </row>
     <row r="157">
@@ -1819,7 +1819,7 @@
         <v>77510</v>
       </c>
       <c r="B157" t="n">
-        <v>0.020933</v>
+        <v>0.016073</v>
       </c>
     </row>
     <row r="158">
@@ -1827,7 +1827,7 @@
         <v>78010</v>
       </c>
       <c r="B158" t="n">
-        <v>0.023323</v>
+        <v>0.016405</v>
       </c>
     </row>
     <row r="159">
@@ -1835,7 +1835,7 @@
         <v>78510</v>
       </c>
       <c r="B159" t="n">
-        <v>0.021798</v>
+        <v>0.015878</v>
       </c>
     </row>
     <row r="160">
@@ -1843,7 +1843,7 @@
         <v>79010</v>
       </c>
       <c r="B160" t="n">
-        <v>0.026068</v>
+        <v>0.014599</v>
       </c>
     </row>
     <row r="161">
@@ -1851,7 +1851,7 @@
         <v>79510</v>
       </c>
       <c r="B161" t="n">
-        <v>0.020578</v>
+        <v>0.014598</v>
       </c>
     </row>
     <row r="162">
@@ -1859,7 +1859,7 @@
         <v>80010</v>
       </c>
       <c r="B162" t="n">
-        <v>0.022926</v>
+        <v>0.014301</v>
       </c>
     </row>
     <row r="163">
@@ -1867,7 +1867,7 @@
         <v>80510</v>
       </c>
       <c r="B163" t="n">
-        <v>0.020507</v>
+        <v>0.017855</v>
       </c>
     </row>
     <row r="164">
@@ -1875,7 +1875,7 @@
         <v>81010</v>
       </c>
       <c r="B164" t="n">
-        <v>0.022221</v>
+        <v>0.016083</v>
       </c>
     </row>
     <row r="165">
@@ -1883,7 +1883,7 @@
         <v>81510</v>
       </c>
       <c r="B165" t="n">
-        <v>0.023027</v>
+        <v>0.016311</v>
       </c>
     </row>
     <row r="166">
@@ -1891,7 +1891,7 @@
         <v>82010</v>
       </c>
       <c r="B166" t="n">
-        <v>0.025295</v>
+        <v>0.014626</v>
       </c>
     </row>
     <row r="167">
@@ -1899,7 +1899,7 @@
         <v>82510</v>
       </c>
       <c r="B167" t="n">
-        <v>0.023367</v>
+        <v>0.016743</v>
       </c>
     </row>
     <row r="168">
@@ -1907,7 +1907,7 @@
         <v>83010</v>
       </c>
       <c r="B168" t="n">
-        <v>0.022076</v>
+        <v>0.016071</v>
       </c>
     </row>
     <row r="169">
@@ -1915,7 +1915,7 @@
         <v>83510</v>
       </c>
       <c r="B169" t="n">
-        <v>0.02431</v>
+        <v>0.014467</v>
       </c>
     </row>
     <row r="170">
@@ -1923,7 +1923,7 @@
         <v>84010</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02148</v>
+        <v>0.017662</v>
       </c>
     </row>
     <row r="171">
@@ -1931,7 +1931,7 @@
         <v>84510</v>
       </c>
       <c r="B171" t="n">
-        <v>0.022958</v>
+        <v>0.015078</v>
       </c>
     </row>
     <row r="172">
@@ -1939,7 +1939,7 @@
         <v>85010</v>
       </c>
       <c r="B172" t="n">
-        <v>0.025163</v>
+        <v>0.014801</v>
       </c>
     </row>
     <row r="173">
@@ -1947,7 +1947,7 @@
         <v>85510</v>
       </c>
       <c r="B173" t="n">
-        <v>0.026947</v>
+        <v>0.017715</v>
       </c>
     </row>
     <row r="174">
@@ -1955,7 +1955,7 @@
         <v>86010</v>
       </c>
       <c r="B174" t="n">
-        <v>0.024054</v>
+        <v>0.015113</v>
       </c>
     </row>
     <row r="175">
@@ -1963,7 +1963,7 @@
         <v>86510</v>
       </c>
       <c r="B175" t="n">
-        <v>0.021713</v>
+        <v>0.016039</v>
       </c>
     </row>
     <row r="176">
@@ -1971,7 +1971,7 @@
         <v>87010</v>
       </c>
       <c r="B176" t="n">
-        <v>0.025701</v>
+        <v>0.013275</v>
       </c>
     </row>
     <row r="177">
@@ -1979,7 +1979,7 @@
         <v>87510</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0196</v>
+        <v>0.01645</v>
       </c>
     </row>
     <row r="178">
@@ -1987,7 +1987,7 @@
         <v>88010</v>
       </c>
       <c r="B178" t="n">
-        <v>0.01917</v>
+        <v>0.020923</v>
       </c>
     </row>
     <row r="179">
@@ -1995,7 +1995,7 @@
         <v>88510</v>
       </c>
       <c r="B179" t="n">
-        <v>0.025022</v>
+        <v>0.017415</v>
       </c>
     </row>
     <row r="180">
@@ -2003,7 +2003,7 @@
         <v>89010</v>
       </c>
       <c r="B180" t="n">
-        <v>0.023566</v>
+        <v>0.014704</v>
       </c>
     </row>
     <row r="181">
@@ -2011,7 +2011,7 @@
         <v>89510</v>
       </c>
       <c r="B181" t="n">
-        <v>0.025015</v>
+        <v>0.015965</v>
       </c>
     </row>
     <row r="182">
@@ -2019,7 +2019,7 @@
         <v>90010</v>
       </c>
       <c r="B182" t="n">
-        <v>0.025315</v>
+        <v>0.016276</v>
       </c>
     </row>
     <row r="183">
@@ -2027,7 +2027,7 @@
         <v>90510</v>
       </c>
       <c r="B183" t="n">
-        <v>0.021716</v>
+        <v>0.018893</v>
       </c>
     </row>
     <row r="184">
@@ -2035,7 +2035,7 @@
         <v>91010</v>
       </c>
       <c r="B184" t="n">
-        <v>0.021579</v>
+        <v>0.0192</v>
       </c>
     </row>
     <row r="185">
@@ -2043,7 +2043,7 @@
         <v>91510</v>
       </c>
       <c r="B185" t="n">
-        <v>0.024228</v>
+        <v>0.016904</v>
       </c>
     </row>
     <row r="186">
@@ -2051,7 +2051,7 @@
         <v>92010</v>
       </c>
       <c r="B186" t="n">
-        <v>0.023343</v>
+        <v>0.022364</v>
       </c>
     </row>
     <row r="187">
@@ -2059,7 +2059,7 @@
         <v>92510</v>
       </c>
       <c r="B187" t="n">
-        <v>0.019815</v>
+        <v>0.016713</v>
       </c>
     </row>
     <row r="188">
@@ -2067,7 +2067,7 @@
         <v>93010</v>
       </c>
       <c r="B188" t="n">
-        <v>0.023795</v>
+        <v>0.017488</v>
       </c>
     </row>
     <row r="189">
@@ -2075,7 +2075,7 @@
         <v>93510</v>
       </c>
       <c r="B189" t="n">
-        <v>0.086094</v>
+        <v>0.018227</v>
       </c>
     </row>
     <row r="190">
@@ -2083,7 +2083,7 @@
         <v>94010</v>
       </c>
       <c r="B190" t="n">
-        <v>0.023185</v>
+        <v>0.014864</v>
       </c>
     </row>
     <row r="191">
@@ -2091,7 +2091,7 @@
         <v>94510</v>
       </c>
       <c r="B191" t="n">
-        <v>0.022146</v>
+        <v>0.016256</v>
       </c>
     </row>
     <row r="192">
@@ -2099,7 +2099,7 @@
         <v>95010</v>
       </c>
       <c r="B192" t="n">
-        <v>0.025735</v>
+        <v>0.021581</v>
       </c>
     </row>
     <row r="193">
@@ -2107,7 +2107,7 @@
         <v>95510</v>
       </c>
       <c r="B193" t="n">
-        <v>0.026362</v>
+        <v>0.014852</v>
       </c>
     </row>
     <row r="194">
@@ -2115,7 +2115,7 @@
         <v>96010</v>
       </c>
       <c r="B194" t="n">
-        <v>0.028069</v>
+        <v>0.014756</v>
       </c>
     </row>
     <row r="195">
@@ -2123,7 +2123,7 @@
         <v>96510</v>
       </c>
       <c r="B195" t="n">
-        <v>0.029825</v>
+        <v>0.015163</v>
       </c>
     </row>
     <row r="196">
@@ -2131,7 +2131,7 @@
         <v>97010</v>
       </c>
       <c r="B196" t="n">
-        <v>0.022287</v>
+        <v>0.021852</v>
       </c>
     </row>
     <row r="197">
@@ -2139,7 +2139,7 @@
         <v>97510</v>
       </c>
       <c r="B197" t="n">
-        <v>0.021955</v>
+        <v>0.019356</v>
       </c>
     </row>
     <row r="198">
@@ -2147,7 +2147,7 @@
         <v>98010</v>
       </c>
       <c r="B198" t="n">
-        <v>0.021657</v>
+        <v>0.016742</v>
       </c>
     </row>
     <row r="199">
@@ -2155,7 +2155,7 @@
         <v>98510</v>
       </c>
       <c r="B199" t="n">
-        <v>0.024653</v>
+        <v>0.014727</v>
       </c>
     </row>
     <row r="200">
@@ -2163,7 +2163,7 @@
         <v>99010</v>
       </c>
       <c r="B200" t="n">
-        <v>0.016087</v>
+        <v>0.01484</v>
       </c>
     </row>
     <row r="201">
@@ -2171,7 +2171,7 @@
         <v>99510</v>
       </c>
       <c r="B201" t="n">
-        <v>0.018627</v>
+        <v>0.014549</v>
       </c>
     </row>
   </sheetData>
